--- a/_sprints/sprint1/burndown/Sprint 1 Burndown Chart version 1.xlsx
+++ b/_sprints/sprint1/burndown/Sprint 1 Burndown Chart version 1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Connor\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Connor\Grad School\Emerging Processes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4549114-A2CF-46A9-B24F-77999AAD0820}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4534DD1-AECE-4849-AF62-53B5DA10864C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{5E7660C9-43B9-406B-90F3-620F8B00C16F}"/>
   </bookViews>
@@ -292,31 +292,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="29"/>
                 <c:pt idx="0">
-                  <c:v>16</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>16</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>16</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>16</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>16</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>16</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>16</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>16</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>13</c:v>
@@ -436,64 +436,64 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="29"/>
                 <c:pt idx="0">
-                  <c:v>16</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>15.2</c:v>
+                  <c:v>17.100000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>16.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15.428571428571429</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>14.4</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>13.714285714285715</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>12.8</c:v>
-                </c:pt>
                 <c:pt idx="5">
-                  <c:v>12</c:v>
+                  <c:v>13.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>11.2</c:v>
+                  <c:v>12.6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>10.4</c:v>
+                  <c:v>11.7</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.6</c:v>
+                  <c:v>10.8</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8.8000000000000007</c:v>
+                  <c:v>9.9</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>8</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>8.1</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>7.1999999999999993</c:v>
                 </c:pt>
-                <c:pt idx="12">
-                  <c:v>6.4</c:v>
-                </c:pt>
                 <c:pt idx="13">
-                  <c:v>5.6</c:v>
+                  <c:v>6.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.8000000000000007</c:v>
+                  <c:v>5.4</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4</c:v>
+                  <c:v>4.5</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3.1999999999999993</c:v>
+                  <c:v>3.5999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2.4000000000000004</c:v>
+                  <c:v>2.6999999999999993</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.5999999999999996</c:v>
+                  <c:v>1.8000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.80000000000000071</c:v>
+                  <c:v>0.89999999999999858</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>0</c:v>
@@ -622,7 +622,7 @@
         <c:axId val="1203719647"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="16"/>
+          <c:max val="18"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1656,7 +1656,7 @@
   <dimension ref="C6:T35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1687,11 +1687,11 @@
         <v>1</v>
       </c>
       <c r="E7">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F7" s="3">
-        <f>16 - (16*(D7-1)/20)</f>
-        <v>16</v>
+        <f>18 - (18*(D7-1)/20)</f>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="3:20" x14ac:dyDescent="0.25">
@@ -1702,11 +1702,11 @@
         <v>2</v>
       </c>
       <c r="E8">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F8" s="3">
-        <f>16 - (16*(D8-1)/20)</f>
-        <v>15.2</v>
+        <f>18 - (18*(D8-1)/20)</f>
+        <v>17.100000000000001</v>
       </c>
     </row>
     <row r="9" spans="3:20" x14ac:dyDescent="0.25">
@@ -1717,11 +1717,11 @@
         <v>3</v>
       </c>
       <c r="E9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F9" s="3">
-        <f>16 - (16*(D9-1)/20)</f>
-        <v>14.4</v>
+        <f>18 - (18*(D9-1)/20)</f>
+        <v>16.2</v>
       </c>
     </row>
     <row r="10" spans="3:20" x14ac:dyDescent="0.25">
@@ -1732,11 +1732,11 @@
         <v>4</v>
       </c>
       <c r="E10">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F10" s="3">
-        <f>16 - (16*(D10-1)/21)</f>
-        <v>13.714285714285715</v>
+        <f>18 - (18*(D10-1)/21)</f>
+        <v>15.428571428571429</v>
       </c>
     </row>
     <row r="11" spans="3:20" x14ac:dyDescent="0.25">
@@ -1747,11 +1747,11 @@
         <v>5</v>
       </c>
       <c r="E11">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F11" s="3">
-        <f>16 - (16*(D11-1)/20)</f>
-        <v>12.8</v>
+        <f>18 - (18*(D11-1)/20)</f>
+        <v>14.4</v>
       </c>
     </row>
     <row r="12" spans="3:20" x14ac:dyDescent="0.25">
@@ -1762,11 +1762,11 @@
         <v>6</v>
       </c>
       <c r="E12">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F12" s="3">
-        <f>16 - (16*(D12-1)/20)</f>
-        <v>12</v>
+        <f>18 - (18*(D12-1)/20)</f>
+        <v>13.5</v>
       </c>
     </row>
     <row r="13" spans="3:20" x14ac:dyDescent="0.25">
@@ -1777,11 +1777,11 @@
         <v>7</v>
       </c>
       <c r="E13">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F13" s="3">
-        <f>16 - (16*(D13-1)/20)</f>
-        <v>11.2</v>
+        <f>18 - (18*(D13-1)/20)</f>
+        <v>12.6</v>
       </c>
     </row>
     <row r="14" spans="3:20" x14ac:dyDescent="0.25">
@@ -1792,11 +1792,11 @@
         <v>8</v>
       </c>
       <c r="E14">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F14" s="3">
-        <f>16 - (16*(D14-1)/20)</f>
-        <v>10.4</v>
+        <f>18 - (18*(D14-1)/20)</f>
+        <v>11.7</v>
       </c>
     </row>
     <row r="15" spans="3:20" x14ac:dyDescent="0.25">
@@ -1807,11 +1807,11 @@
         <v>9</v>
       </c>
       <c r="E15">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F15" s="3">
-        <f>16 - (16*(D15-1)/20)</f>
-        <v>9.6</v>
+        <f>18 - (18*(D15-1)/20)</f>
+        <v>10.8</v>
       </c>
       <c r="T15" t="s">
         <v>4</v>
@@ -1828,8 +1828,8 @@
         <v>13</v>
       </c>
       <c r="F16" s="3">
-        <f>16 - (16*(D16-1)/20)</f>
-        <v>8.8000000000000007</v>
+        <f>18 - (18*(D16-1)/20)</f>
+        <v>9.9</v>
       </c>
     </row>
     <row r="17" spans="3:6" x14ac:dyDescent="0.25">
@@ -1840,8 +1840,8 @@
         <v>11</v>
       </c>
       <c r="F17" s="3">
-        <f>16 - (16*(D17-1)/20)</f>
-        <v>8</v>
+        <f>18 - (18*(D17-1)/20)</f>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="3:6" x14ac:dyDescent="0.25">
@@ -1852,8 +1852,8 @@
         <v>12</v>
       </c>
       <c r="F18" s="3">
-        <f>16 - (16*(D18-1)/20)</f>
-        <v>7.1999999999999993</v>
+        <f>18 - (18*(D18-1)/20)</f>
+        <v>8.1</v>
       </c>
     </row>
     <row r="19" spans="3:6" x14ac:dyDescent="0.25">
@@ -1864,8 +1864,8 @@
         <v>13</v>
       </c>
       <c r="F19" s="3">
-        <f>16 - (16*(D19-1)/20)</f>
-        <v>6.4</v>
+        <f>18 - (18*(D19-1)/20)</f>
+        <v>7.1999999999999993</v>
       </c>
     </row>
     <row r="20" spans="3:6" x14ac:dyDescent="0.25">
@@ -1876,8 +1876,8 @@
         <v>14</v>
       </c>
       <c r="F20" s="3">
-        <f>16 - (16*(D20-1)/20)</f>
-        <v>5.6</v>
+        <f>18 - (18*(D20-1)/20)</f>
+        <v>6.3000000000000007</v>
       </c>
     </row>
     <row r="21" spans="3:6" x14ac:dyDescent="0.25">
@@ -1888,8 +1888,8 @@
         <v>15</v>
       </c>
       <c r="F21" s="3">
-        <f>16 - (16*(D21-1)/20)</f>
-        <v>4.8000000000000007</v>
+        <f>18 - (18*(D21-1)/20)</f>
+        <v>5.4</v>
       </c>
     </row>
     <row r="22" spans="3:6" x14ac:dyDescent="0.25">
@@ -1900,8 +1900,8 @@
         <v>16</v>
       </c>
       <c r="F22" s="3">
-        <f>16 - (16*(D22-1)/20)</f>
-        <v>4</v>
+        <f>18 - (18*(D22-1)/20)</f>
+        <v>4.5</v>
       </c>
     </row>
     <row r="23" spans="3:6" x14ac:dyDescent="0.25">
@@ -1912,8 +1912,8 @@
         <v>17</v>
       </c>
       <c r="F23" s="3">
-        <f>16 - (16*(D23-1)/20)</f>
-        <v>3.1999999999999993</v>
+        <f>18 - (18*(D23-1)/20)</f>
+        <v>3.5999999999999996</v>
       </c>
     </row>
     <row r="24" spans="3:6" x14ac:dyDescent="0.25">
@@ -1924,8 +1924,8 @@
         <v>18</v>
       </c>
       <c r="F24" s="3">
-        <f>16 - (16*(D24-1)/20)</f>
-        <v>2.4000000000000004</v>
+        <f>18 - (18*(D24-1)/20)</f>
+        <v>2.6999999999999993</v>
       </c>
     </row>
     <row r="25" spans="3:6" x14ac:dyDescent="0.25">
@@ -1936,8 +1936,8 @@
         <v>19</v>
       </c>
       <c r="F25" s="3">
-        <f>16 - (16*(D25-1)/20)</f>
-        <v>1.5999999999999996</v>
+        <f>18 - (18*(D25-1)/20)</f>
+        <v>1.8000000000000007</v>
       </c>
     </row>
     <row r="26" spans="3:6" x14ac:dyDescent="0.25">
@@ -1948,8 +1948,8 @@
         <v>20</v>
       </c>
       <c r="F26" s="3">
-        <f>16 - (16*(D26-1)/20)</f>
-        <v>0.80000000000000071</v>
+        <f>18 - (18*(D26-1)/20)</f>
+        <v>0.89999999999999858</v>
       </c>
     </row>
     <row r="27" spans="3:6" x14ac:dyDescent="0.25">
@@ -1960,7 +1960,7 @@
         <v>21</v>
       </c>
       <c r="F27" s="3">
-        <f>16 - (16*(D27-1)/20)</f>
+        <f>18 - (18*(D27-1)/20)</f>
         <v>0</v>
       </c>
     </row>

--- a/_sprints/sprint1/burndown/Sprint 1 Burndown Chart version 1.xlsx
+++ b/_sprints/sprint1/burndown/Sprint 1 Burndown Chart version 1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Connor\Grad School\Emerging Processes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Connor\Grad School\Emerging Processes\adventra-app\_sprints\sprint1\burndown\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4534DD1-AECE-4849-AF62-53B5DA10864C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{405505A8-FBCB-46B8-8CE5-E7D54D0C8A0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{5E7660C9-43B9-406B-90F3-620F8B00C16F}"/>
+    <workbookView xWindow="2250" yWindow="2250" windowWidth="21600" windowHeight="11295" xr2:uid="{5E7660C9-43B9-406B-90F3-620F8B00C16F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -150,7 +150,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Sprint 3 - Story Points Burndown Curve</a:t>
+              <a:t>Sprint 1 - Story Points Burndown Curve</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1750,7 +1750,7 @@
         <v>18</v>
       </c>
       <c r="F11" s="3">
-        <f>18 - (18*(D11-1)/20)</f>
+        <f t="shared" ref="F11:F27" si="0">18 - (18*(D11-1)/20)</f>
         <v>14.4</v>
       </c>
     </row>
@@ -1765,7 +1765,7 @@
         <v>18</v>
       </c>
       <c r="F12" s="3">
-        <f>18 - (18*(D12-1)/20)</f>
+        <f t="shared" si="0"/>
         <v>13.5</v>
       </c>
     </row>
@@ -1780,7 +1780,7 @@
         <v>18</v>
       </c>
       <c r="F13" s="3">
-        <f>18 - (18*(D13-1)/20)</f>
+        <f t="shared" si="0"/>
         <v>12.6</v>
       </c>
     </row>
@@ -1795,7 +1795,7 @@
         <v>18</v>
       </c>
       <c r="F14" s="3">
-        <f>18 - (18*(D14-1)/20)</f>
+        <f t="shared" si="0"/>
         <v>11.7</v>
       </c>
     </row>
@@ -1810,7 +1810,7 @@
         <v>18</v>
       </c>
       <c r="F15" s="3">
-        <f>18 - (18*(D15-1)/20)</f>
+        <f t="shared" si="0"/>
         <v>10.8</v>
       </c>
       <c r="T15" t="s">
@@ -1828,7 +1828,7 @@
         <v>13</v>
       </c>
       <c r="F16" s="3">
-        <f>18 - (18*(D16-1)/20)</f>
+        <f t="shared" si="0"/>
         <v>9.9</v>
       </c>
     </row>
@@ -1840,7 +1840,7 @@
         <v>11</v>
       </c>
       <c r="F17" s="3">
-        <f>18 - (18*(D17-1)/20)</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
     </row>
@@ -1852,7 +1852,7 @@
         <v>12</v>
       </c>
       <c r="F18" s="3">
-        <f>18 - (18*(D18-1)/20)</f>
+        <f t="shared" si="0"/>
         <v>8.1</v>
       </c>
     </row>
@@ -1864,7 +1864,7 @@
         <v>13</v>
       </c>
       <c r="F19" s="3">
-        <f>18 - (18*(D19-1)/20)</f>
+        <f t="shared" si="0"/>
         <v>7.1999999999999993</v>
       </c>
     </row>
@@ -1876,7 +1876,7 @@
         <v>14</v>
       </c>
       <c r="F20" s="3">
-        <f>18 - (18*(D20-1)/20)</f>
+        <f t="shared" si="0"/>
         <v>6.3000000000000007</v>
       </c>
     </row>
@@ -1888,7 +1888,7 @@
         <v>15</v>
       </c>
       <c r="F21" s="3">
-        <f>18 - (18*(D21-1)/20)</f>
+        <f t="shared" si="0"/>
         <v>5.4</v>
       </c>
     </row>
@@ -1900,7 +1900,7 @@
         <v>16</v>
       </c>
       <c r="F22" s="3">
-        <f>18 - (18*(D22-1)/20)</f>
+        <f t="shared" si="0"/>
         <v>4.5</v>
       </c>
     </row>
@@ -1912,7 +1912,7 @@
         <v>17</v>
       </c>
       <c r="F23" s="3">
-        <f>18 - (18*(D23-1)/20)</f>
+        <f t="shared" si="0"/>
         <v>3.5999999999999996</v>
       </c>
     </row>
@@ -1924,7 +1924,7 @@
         <v>18</v>
       </c>
       <c r="F24" s="3">
-        <f>18 - (18*(D24-1)/20)</f>
+        <f t="shared" si="0"/>
         <v>2.6999999999999993</v>
       </c>
     </row>
@@ -1936,7 +1936,7 @@
         <v>19</v>
       </c>
       <c r="F25" s="3">
-        <f>18 - (18*(D25-1)/20)</f>
+        <f t="shared" si="0"/>
         <v>1.8000000000000007</v>
       </c>
     </row>
@@ -1948,7 +1948,7 @@
         <v>20</v>
       </c>
       <c r="F26" s="3">
-        <f>18 - (18*(D26-1)/20)</f>
+        <f t="shared" si="0"/>
         <v>0.89999999999999858</v>
       </c>
     </row>
@@ -1960,7 +1960,7 @@
         <v>21</v>
       </c>
       <c r="F27" s="3">
-        <f>18 - (18*(D27-1)/20)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
